--- a/任务文件夹/nimeidejiqi.xlsx
+++ b/任务文件夹/nimeidejiqi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12735"/>
+    <workbookView windowWidth="28080" windowHeight="12735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="linux" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>IP：</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Wwxc^_$85</t>
   </si>
   <si>
-    <t>老版开发服机器</t>
+    <t>老版开发服机器，新版开发服</t>
   </si>
   <si>
     <t>47.93.122.164</t>
@@ -85,7 +85,7 @@
     <t>cppD1str(^)3975</t>
   </si>
   <si>
-    <t>开发 不稳定的</t>
+    <t>正式服</t>
   </si>
   <si>
     <t>内测二 不稳定的</t>
@@ -94,9 +94,6 @@
     <t>47.94.37.16</t>
   </si>
   <si>
-    <t>正式服</t>
-  </si>
-  <si>
     <t xml:space="preserve">47.95.32.119 </t>
   </si>
   <si>
@@ -218,6 +215,12 @@
   </si>
   <si>
     <t>10.30.51.115</t>
+  </si>
+  <si>
+    <t>47.95.34.149</t>
+  </si>
+  <si>
+    <t>开发服新mysql位置20180509</t>
   </si>
   <si>
     <t>http://192.168.111.223/zentao/</t>
@@ -397,8 +400,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -432,9 +435,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,7 +444,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,37 +466,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -502,30 +473,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,11 +495,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -562,19 +565,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,12 +685,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -604,37 +697,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,103 +721,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,6 +835,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -843,50 +855,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,6 +882,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -922,10 +925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,133 +937,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,8 +1460,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1608,12 +1611,12 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -1625,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1640,8 +1643,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1674,16 +1677,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>6379</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1694,16 +1697,16 @@
         <v>18001</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1715,50 +1718,50 @@
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>6379</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>18000</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1805,30 +1808,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1846,13 +1849,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
@@ -1881,90 +1884,107 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>3306</v>
       </c>
       <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>3306</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>3306</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>8066</v>
       </c>
       <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>65</v>
+      </c>
+      <c r="B7">
+        <v>8066</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2007,18 +2027,18 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2049,10 +2069,10 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2065,10 +2085,10 @@
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2079,7 +2099,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -2093,16 +2113,16 @@
     </row>
     <row r="6" spans="3:17">
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="9"/>
@@ -2117,16 +2137,16 @@
     </row>
     <row r="7" spans="3:17">
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="9"/>
@@ -2141,16 +2161,16 @@
     </row>
     <row r="8" spans="3:17">
       <c r="C8" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3">
         <v>10001</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="9"/>
@@ -2169,10 +2189,10 @@
         <v>10002</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="9"/>
@@ -2191,10 +2211,10 @@
         <v>10002</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="9"/>
@@ -2213,10 +2233,10 @@
         <v>10003</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="9"/>
@@ -2235,10 +2255,10 @@
         <v>10004</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="9"/>
@@ -2257,10 +2277,10 @@
         <v>10005</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="9"/>
@@ -2279,10 +2299,10 @@
         <v>10006</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="9"/>
@@ -2298,13 +2318,13 @@
     <row r="15" spans="3:17">
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="9"/>
@@ -2319,16 +2339,16 @@
     </row>
     <row r="16" spans="3:17">
       <c r="C16" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="9"/>
@@ -2471,13 +2491,13 @@
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="4:6">
@@ -2486,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="4:6">
@@ -2495,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="4:6">
@@ -2504,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="4:6">
@@ -2513,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="4:6">
@@ -2522,7 +2542,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="4:6">
@@ -2531,16 +2551,16 @@
         <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="8"/>
       <c r="E34" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="4:6">
@@ -2591,36 +2611,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/任务文件夹/nimeidejiqi.xlsx
+++ b/任务文件夹/nimeidejiqi.xlsx
@@ -398,10 +398,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -429,81 +429,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,6 +459,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -539,22 +555,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -565,187 +565,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,6 +845,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -855,6 +870,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,32 +917,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -925,145 +925,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
